--- a/dist/data/profiles/xlsx/bluff/profile 35-11 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 35-11 graph.xlsx
@@ -16993,11 +16993,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70939497"/>
-        <c:axId val="46496461"/>
+        <c:axId val="37205790"/>
+        <c:axId val="21527509"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70939497"/>
+        <c:axId val="37205790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17032,12 +17032,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46496461"/>
+        <c:crossAx val="21527509"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46496461"/>
+        <c:axId val="21527509"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17081,7 +17081,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70939497"/>
+        <c:crossAx val="37205790"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
